--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1793.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1793.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.177033597280142</v>
+        <v>0.7110151648521423</v>
       </c>
       <c r="B1">
-        <v>2.316299501450806</v>
+        <v>1.459963321685791</v>
       </c>
       <c r="C1">
-        <v>5.056693948921431</v>
+        <v>4.069529056549072</v>
       </c>
       <c r="D1">
-        <v>2.58310688764004</v>
+        <v>2.582533836364746</v>
       </c>
       <c r="E1">
-        <v>1.111817647732921</v>
+        <v>0.5626941919326782</v>
       </c>
     </row>
   </sheetData>
